--- a/reply_messages_police.xlsx
+++ b/reply_messages_police.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11222"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsaac/Desktop/police/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mars/Development/cxcxc/linebot/linebot-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA31015A-9F9C-1346-B04A-701FA0FF5A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FB7344-739F-274C-B488-056E2430BD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9BC24130-4803-904F-A16F-52C1D6B5D911}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9BC24130-4803-904F-A16F-52C1D6B5D911}"/>
   </bookViews>
   <sheets>
     <sheet name="reply_message" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>reply_message_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,157 +67,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"type": "text", "text": "您好這裡警政系統，請問有什麼能為您服務的嗎？", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "報警", "text": "報警", "data": "section=police&amp;action=report_asking"}}]}}</t>
-  </si>
-  <si>
-    <t>report_asking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indecency_done</t>
-  </si>
-  <si>
-    <t>fire_none</t>
-  </si>
-  <si>
-    <t>stolen_right</t>
-  </si>
-  <si>
-    <t>{"type": "text", "text": "抱歉我們並未發現有火警，請不要鬧了好嗎？", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "報警", "text": "報警", "data": "section=police&amp;action=report_asking"}}]}}</t>
-  </si>
-  <si>
-    <t>set_file</t>
-  </si>
-  <si>
-    <t>end_one</t>
-  </si>
-  <si>
-    <t>end_two</t>
-  </si>
-  <si>
-    <t>end_three</t>
-  </si>
-  <si>
-    <t>{"type": "text", "text": "請問還有什麼可以幫助的嗎？", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "火棍被偷了", "text": "火棍被偷了", "data": "section=police&amp;action=set_file"}}]}}</t>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "是社團活動的東西被偷嗎？稍等我一下建立檔案......" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type": "text", "text": "請問您知道犯人是誰嗎？", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "我知道", "text": "我知道", "data": "section=police&amp;action=who_is_criminal"}}, {"type": "action", "action": {"type": "postback", "label": "我肯定犯人一定是那個人", "text": "我肯定犯人一定是那個人", "data": "section=police&amp;action=who_is_criminal"}}]}}</t>
-  </si>
-  <si>
-    <t>who_is_criminal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "經查證，此人並沒有犯下竊盜事件" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "但我們已經透過監視器畫面抓捕到兇手了，雖然贓物並未查獲，警方會持續追蹤其下落，請不用擔心" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "警方透過監視器畫面抓捕到兇手，劍道社長" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "但您指控的對象馬斯已經無法聯絡，警方懷疑他是共犯正在全力追捕當中" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "同時在他的租屋處搜出一封信件，屬名給張菲，這邊就請您過目，若有任何疑慮歡迎聯絡！" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>police</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新聞圖 兌換券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信箱圖 兌換券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type": "text", "text": "請問是甚麼類型的案件呢？", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "竊盜", "text": "竊盜", "data": "section=police&amp;action=stolen_right"}}, {"type": "action", "action": {"type": "postback", "label": "公然猥褻", "text": "公然猥褻", "data": "section=police&amp;action=indecency_done"}}, {"type": "action", "action": {"type": "postback", "label": "縱火", "text": "縱火", "data": "section=police&amp;action=fire_none"}}]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello_asking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type": "text", "text": "這件事情警方已經著手處理了喔！還有其他案件嗎？", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "竊盜", "text": "竊盜", "data": "section=police&amp;action=stolen_right"}}, {"type": "action", "action": {"type": "postback", "label": "縱火", "text": "縱火", "data": "section=police&amp;action=fire_none"}}]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type": "text", "text": "請問被偷竊的物品是甚麼呢？", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "金錢", "text": "金錢", "data": "section=police&amp;action=how_much"}}, {"type": "action", "action": {"type": "postback", "label": "火棍", "text": "火棍", "data": "section=police&amp;action=set_file"}}, {"type": "action", "action": {"type": "postback", "label": "內衣", "text": "內衣", "data": "section=police&amp;action=underwear_check"}}]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>how_much</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type": "text", "text": "請問被偷了多少錢呢？", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "1000", "text": "1000", "data": "section=police&amp;action=money_check"}}, {"type": "action", "action": {"type": "postback", "label": "10000", "text": "10000", "data": "section=police&amp;action=money_check"}}]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>underwear_check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "收到了您的報案，已登錄，如果拾獲會再通知您。" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "內衣：我們有在貴校至道樓二樓廁間拾獲內衣一件，您可以擇日來確認是否是您遺失的內衣。" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "如果找不到棍子就先用光棍代替吧！叔叔我以前也是火舞社的成員，夜間看光棍的表演有不一樣的風情喔～" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "image", "originalContentUrl": "https://i.imgur.com/vpA7vpf.png", "previewImageUrl": "https://i.imgur.com/vpA7vpf.png" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "經查證，貴校劍道社長確實犯下了竊盜事件，並有足夠的動機犯案，我們已經將他逮捕歸案" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "我們在據德樓地下室找到了遺失的火棍，別擔心，你們現在就可以領走了！祝你們表演順利！" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "image", "originalContentUrl": "https://i.imgur.com/yAmCsyD.png", "previewImageUrl": "https://i.imgur.com/yAmCsyD.png" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_two_half</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "經查證，我們在對楊冪做筆錄時他親口承認了貴校劍道社長確實犯下了竊盜事件，並有足夠的動機犯案，我們已經將他逮捕歸案" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type": "text", "text": "那請問犯人是誰呢？", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "齊木難雄", "text": "齊木難雄", "data": "section=police&amp;action=end_one"}}, {"type": "action", "action": {"type": "postback", "label": "屈原", "text": "屈原", "data": "section=police&amp;action=end_one"}}, {"type": "action", "action": {"type": "postback", "label": "楊冪", "text": "楊冪", "data": "section=police&amp;action=end_two_half"}}, {"type": "action", "action": {"type": "postback", "label": "張菲", "text": "張菲", "data": "section=police&amp;action=end_one"}}, {"type": "action", "action": {"type": "postback", "label": "阿五", "text": "阿五", "data": "section=police&amp;action=end_one"}}, {"type": "action", "action": {"type": "postback", "label": "馬斯", "text": "馬斯", "data": "section=police&amp;action=end_three"}}, {"type": "action", "action": {"type": "postback", "label": "劍道社長", "text": "劍道社長", "data": "section=police&amp;action=end_two"}}, {"type": "action", "action": {"type": "postback", "label": "足球社長", "text": "足球社長", "data": "section=police&amp;action=end_one"}}, {"type": "action", "action": {"type": "postback", "label": "壘球社長", "text": "壘球社長", "data": "section=police&amp;action=end_one"}}]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "type": "image", "originalContentUrl": "https://i.imgur.com/jCzZody.jpg", "previewImageUrl": "https://i.imgur.com/jCzZody.jpg" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{ "type": "text",
+  "text": "您好！\n若有任何問題的話，可以直接透過此帳號聯絡我們唷～\n\n你在這裡可以找到各類型的Line機器人供你遊玩！\n若你很喜歡機器人的話，\n不仿點擊\" `Give me a Like👍` \"\n給創作者一個大大的鼓勵吧🤩", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "開始挑選", "text": "開始挑選", "data": "section=jbwstudio&amp;action=begin_picking"}}]}}</t>
+  </si>
+  <si>
+    <t>jbwstudio</t>
+  </si>
+  <si>
+    <t>begin_picking</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>begin_displaying</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>{
+    "type": "text",
+    "text": "請選擇你想要的類型！",
+    "quickReply": {
+        "items": [
+            {
+                "type": "action",
+                "action": {
+                    "type": "postback",
+                    "label": "食物",
+                    "text": "食物",
+                    "data": "section=jbwstudio&amp;action=begin_displaying&amp;data=pick_food"
+                }
+            },
+            {
+                "type": "action",
+                "action": {
+                    "type": "postback",
+                    "label": "運動",
+                    "text": "運動",
+                    "data": "section=jbwstudio&amp;action=begin_displaying&amp;data=pick_sport"
+                }
+            },
+            {
+                "type": "action",
+                "action": {
+                    "type": "postback",
+                    "label": "感情",
+                    "text": "感情",
+                    "data": "section=jbwstudio&amp;action=begin_displaying&amp;data=pick_feeling"
+                }
+            },
+            {
+                "type": "action",
+                "action": {
+                    "type": "postback",
+                    "label": "遊戲",
+                    "text": "遊戲",
+                    "data": "section=jbwstudio&amp;action=begin_displaying&amp;data=pick_game"
+                }
+            },
+            {
+                "type": "action",
+                "action": {
+                    "type": "postback",
+                    "label": "生活",
+                    "text": "生活",
+                    "data": "section=jbwstudio&amp;action=begin_displaying&amp;data=pick_life"
+                }
+            },
+            {
+                "type": "action",
+                "action": {
+                    "type": "postback",
+                    "label": "健康",
+                    "text": "健康",
+                    "data": "section=jbwstudio&amp;action=begin_displaying&amp;data=pick_health"
+                }
+            },
+            {
+                "type": "action",
+                "action": {
+                    "type": "postback",
+                    "label": "教育",
+                    "text": "教育",
+                    "data": "section=jbwstudio&amp;action=begin_displaying&amp;data=pick_education"
+                }
+            }
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>{ "type": "text",
+  "text": "請選擇你想要的類型！", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "開始挑選", "text": "開始挑選", "data": "section=jbwstudio&amp;action=list_display"}}]}}</t>
+  </si>
+  <si>
+    <t>list_display</t>
   </si>
 </sst>
 </file>
@@ -225,20 +171,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -270,7 +216,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -278,7 +224,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFABB2BF"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -286,7 +232,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF212121"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -294,7 +240,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -328,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,7 +305,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -377,9 +323,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,7 +344,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -691,22 +640,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CB9F3B-B801-1942-8728-2970366ED2ED}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="6"/>
     <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,14 +682,17 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="12"/>
@@ -747,395 +700,296 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
       <c r="C5" s="7"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
       <c r="C6" s="7"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19">
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="3"/>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19">
-      <c r="B13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19">
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19">
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:9" ht="19">
+    <row r="17" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="2:9" ht="19">
+    <row r="18" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="2:9" ht="19">
+    <row r="19" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="2:9" ht="19">
+    <row r="20" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" ht="19">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" ht="19">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" ht="19">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="19">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" ht="19">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" ht="19">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="2:9" ht="19">
+    <row r="27" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="2:9" ht="19">
+    <row r="28" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="2:9" ht="19">
+    <row r="29" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
       <c r="C29" s="8"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" ht="19">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" ht="19">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" ht="19">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B32" s="8"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" ht="19">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B33" s="9"/>
       <c r="C33" s="8"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="16">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="19">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B35" s="8"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="19">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B36" s="8"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" ht="19">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B37" s="8"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="19">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" ht="19">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B39" s="8"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="19">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B40" s="8"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="19">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B41" s="8"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" ht="19">
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" ht="19">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B43" s="9"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" ht="19">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B44" s="8"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="19">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="19">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B46" s="8"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" ht="19">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="19">
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="19">
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B49" s="9"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" ht="19">
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B50" s="9"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" ht="19">
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="19">
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="16">
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="11"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="19">
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B54" s="9"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="19">
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="2:10" ht="19" x14ac:dyDescent="0.2">
       <c r="B55" s="9"/>
-      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>